--- a/Levels/level_generators/level_template.xlsx
+++ b/Levels/level_generators/level_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="460" windowWidth="15340" windowHeight="14080" tabRatio="500"/>
+    <workbookView xWindow="10260" yWindow="460" windowWidth="15340" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="o_level1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,2119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="121">
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="0.14996795556505021"/>
@@ -1146,18 +3258,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16" width="6" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +3315,25 @@
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,8 +3682,9 @@
       <c r="P8" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,41 +4083,382 @@
       <c r="P16" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="17" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:P16">
-    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="W">
+  <conditionalFormatting sqref="Q1:AG1 S8 A1:P16 A17:AC27">
+    <cfRule type="containsText" dxfId="120" priority="11" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="10" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="119" priority="10" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="118" priority="9" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="117" priority="8" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="K">
+    <cfRule type="containsText" dxfId="116" priority="7" operator="containsText" text="K">
       <formula>NOT(ISERROR(SEARCH("K",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="D">
+    <cfRule type="containsText" dxfId="115" priority="6" operator="containsText" text="D">
       <formula>NOT(ISERROR(SEARCH("D",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="#">
+    <cfRule type="containsText" dxfId="114" priority="5" operator="containsText" text="#">
       <formula>NOT(ISERROR(SEARCH("#",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="113" priority="4" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="112" priority="3" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="111" priority="2" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="R">
+    <cfRule type="containsText" dxfId="110" priority="1" operator="containsText" text="R">
       <formula>NOT(ISERROR(SEARCH("R",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
